--- a/dims/dsql.xlsx
+++ b/dims/dsql.xlsx
@@ -1,25 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tam.tt05\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnjcomvn.sharepoint.com/sites/HuynhTN/Shared Documents/Project/streamlit/dims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF6687F-C6E6-4750-AB7F-9D0717F5FA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{4AF6687F-C6E6-4750-AB7F-9D0717F5FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F84600-AE6F-44EB-8BBA-76BC5031052A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,13 +1074,13 @@
     <t>HỌ VÀ TÊN</t>
   </si>
   <si>
-    <t>06/03/2025 Phụ trách CH này</t>
-  </si>
-  <si>
-    <t>08/03/2025 Nghỉ việc</t>
-  </si>
-  <si>
-    <t>Từ 06/3 ngưng phụ trách CH này</t>
+    <t>Cấp</t>
+  </si>
+  <si>
+    <t>Cụm</t>
+  </si>
+  <si>
+    <t>Aut</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1088,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1127,12 +1165,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1176,6 +1214,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1196,6 +1237,986 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="_com.sap.ip.bi.xl.hiddensheet"/>
+      <sheetName val="CuaHang"/>
+      <sheetName val="CuaHang (4cum)"/>
+      <sheetName val="Tier"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="DienTichCH"/>
+      <sheetName val="Dim_CH"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>mã ch</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>AREA</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1409</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1256</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1255</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1558</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1504</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>p011</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1404</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1115</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1316</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1317</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>p028</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1318</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1402</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>p050</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>1534</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>1541</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>1575</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>1277</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>1278</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>1279</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>1370</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1417</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>1473</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1517</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>1493</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>p015</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>1555</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>1280</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>1401</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>p016</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>1532</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>1294</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>1295</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>1445</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>p019</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>1539</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>1579</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>1314</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>1467</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>p027</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>1315</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>1308</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>1307</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>1470</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>1489</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>1373</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>1477</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>1405</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>1447</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>1306</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>1310</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>p025</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>1403</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>1548</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>1376</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>p051</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>1516</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>1565</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>1329</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>1330</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>p035</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>1595</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>1596</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>TNN03</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>1617</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>1627</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>1628</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>1632</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>1634</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>TNN01</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>1644</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>TNN02</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>1647</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>1648</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>1652</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>TNN04</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>1013</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>2000</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>2001</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>2002</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>2003</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>2004</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>3000</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>3001</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>3002</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>3003</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>3004</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>4000</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>4001</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>4002</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>4003</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>4004</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>5000</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>5001</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>5002</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>5003</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>5004</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>5005</v>
+          </cell>
+          <cell r="D98" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>6000</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>6001</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>6002</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>6003</v>
+          </cell>
+          <cell r="D102" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>6004</v>
+          </cell>
+          <cell r="D103" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>6005</v>
+          </cell>
+          <cell r="D104" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>6006</v>
+          </cell>
+          <cell r="D105" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>6007</v>
+          </cell>
+          <cell r="D106" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>7000</v>
+          </cell>
+          <cell r="D107" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>7001</v>
+          </cell>
+          <cell r="D108" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>7002</v>
+          </cell>
+          <cell r="D109" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>7003</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>7004</v>
+          </cell>
+          <cell r="D111" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>7005</v>
+          </cell>
+          <cell r="D112" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>8000</v>
+          </cell>
+          <cell r="D113" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>8001</v>
+          </cell>
+          <cell r="D114" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>8002</v>
+          </cell>
+          <cell r="D115" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>8003</v>
+          </cell>
+          <cell r="D116" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>8004</v>
+          </cell>
+          <cell r="D117" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>9001</v>
+          </cell>
+          <cell r="D118" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="D119" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>CT</v>
+          </cell>
+          <cell r="D120" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>9999</v>
+          </cell>
+          <cell r="D121" t="str">
+            <v>VPCN</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>X</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1518,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1534,10 +2555,10 @@
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1562,8 +2583,17 @@
       <c r="H1" s="9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1588,8 +2618,19 @@
       <c r="H2" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H2),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE($H$2:$H$68))</f>
+        <v>9999-4000-6001-7000-5000-8002-2001-1295-1255-1317-1278-1307-1329-1565-1405-1409-1648-1467-1470-1477-1493-1280-1318-1489-1316-1401-1294-1314-1376-1373-1330-1555-1558-1370-1256-1277-1532-1534-1404-1539-1541-1548-1575-1579-1596-1617-1627-1628-1632-1634-1644-1647-1652-1115-1445-1447-1473-1504-1516-1517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1614,8 +2655,19 @@
       <c r="H3" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H3),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K3" s="7" t="str">
+        <f>H3</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1640,8 +2692,19 @@
       <c r="H4" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H4),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" ref="K4:K6" si="0">H4</f>
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1666,8 +2729,19 @@
       <c r="H5" s="4" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H5),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1692,8 +2766,19 @@
       <c r="H6" s="4" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H6),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1718,8 +2803,19 @@
       <c r="H7" s="4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H7),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" ref="K3:K66" si="1">_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE($H$2:$H$68))</f>
+        <v>9999-4000-6001-7000-5000-8002-2001-1295-1255-1317-1278-1307-1329-1565-1405-1409-1648-1467-1470-1477-1493-1280-1318-1489-1316-1401-1294-1314-1376-1373-1330-1555-1558-1370-1256-1277-1532-1534-1404-1539-1541-1548-1575-1579-1596-1617-1627-1628-1632-1634-1644-1647-1652-1115-1445-1447-1473-1504-1516-1517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1744,8 +2840,19 @@
       <c r="H8" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H8),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE($H$8:$H$68))</f>
+        <v>2001-1295-1255-1317-1278-1307-1329-1565-1405-1409-1648-1467-1470-1477-1493-1280-1318-1489-1316-1401-1294-1314-1376-1373-1330-1555-1558-1370-1256-1277-1532-1534-1404-1539-1541-1548-1575-1579-1596-1617-1627-1628-1632-1634-1644-1647-1652-1115-1445-1447-1473-1504-1516-1517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1770,8 +2877,19 @@
       <c r="H9" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H9),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K9" s="7" t="str" cm="1">
+        <f t="array" ref="K9">_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE(_xlfn._xlws.FILTER($H$2:$H$68,$J$2:$J$68="TNN03")))</f>
+        <v>1317-1280-1318-1316-1401-1532-1534-1404-1541-1575-1596-1115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1796,8 +2914,19 @@
       <c r="H10" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H10),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K10" s="7" t="str" cm="1">
+        <f t="array" ref="K10">_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE(_xlfn._xlws.FILTER($H$2:$H$68,$J$2:$J$68="TNN01")))</f>
+        <v>1278-1467-1493-1314-1555-1370-1277-1539-1617-1634-1473-1517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1822,8 +2951,19 @@
       <c r="H11" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H11),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K11" s="7" t="str" cm="1">
+        <f t="array" ref="K11">_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE(_xlfn._xlws.FILTER($H$2:$H$68,$J$2:$J$68="TNN02")))</f>
+        <v>1295-1307-1405-1470-1477-1489-1294-1373-1548-1579-1628-1644-1445-1447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1848,8 +2988,19 @@
       <c r="H12" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H12),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>VPCN</v>
+      </c>
+      <c r="K12" s="7" t="str" cm="1">
+        <f t="array" ref="K12">_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE(_xlfn._xlws.FILTER($H$2:$H$68,$J$2:$J$68="TNN04")))</f>
+        <v>1255-1329-1565-1409-1648-1376-1330-1558-1256-1627-1632-1647-1652-1504-1516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1874,8 +3025,19 @@
       <c r="H13" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H13),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>H13</f>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1900,8 +3062,19 @@
       <c r="H14" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H14),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" ref="K14:K68" si="2">H14</f>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1926,8 +3099,19 @@
       <c r="H15" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H15),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1952,8 +3136,19 @@
       <c r="H16" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H16),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1978,11 +3173,19 @@
       <c r="H17" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H17),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2007,8 +3210,19 @@
       <c r="H18" s="4" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H18),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2033,8 +3247,19 @@
       <c r="H19" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H19),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2059,8 +3284,19 @@
       <c r="H20" s="4" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H20),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2085,8 +3321,19 @@
       <c r="H21" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H21),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2111,8 +3358,19 @@
       <c r="H22" s="4" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H22),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2137,8 +3395,19 @@
       <c r="H23" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H23),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2163,8 +3432,19 @@
       <c r="H24" s="4" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H24),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2189,8 +3469,19 @@
       <c r="H25" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H25),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K25" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2215,8 +3506,19 @@
       <c r="H26" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H26),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2241,8 +3543,19 @@
       <c r="H27" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H27),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2267,8 +3580,19 @@
       <c r="H28" s="4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H28),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2293,8 +3617,19 @@
       <c r="H29" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H29),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2319,8 +3654,19 @@
       <c r="H30" s="4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H30),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2345,8 +3691,19 @@
       <c r="H31" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H31),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2371,8 +3728,19 @@
       <c r="H32" s="4" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H32),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K32" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2397,8 +3765,19 @@
       <c r="H33" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H33),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K33" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2423,8 +3802,19 @@
       <c r="H34" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H34),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K34" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2449,8 +3839,19 @@
       <c r="H35" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H35),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K35" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2475,8 +3876,19 @@
       <c r="H36" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H36),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K36" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2501,8 +3913,19 @@
       <c r="H37" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H37),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K37" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2527,8 +3950,19 @@
       <c r="H38" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H38),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K38" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2553,8 +3987,19 @@
       <c r="H39" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H39),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K39" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2579,8 +4024,19 @@
       <c r="H40" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H40),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K40" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2605,8 +4061,19 @@
       <c r="H41" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H41),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K41" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2631,8 +4098,19 @@
       <c r="H42" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H42),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K42" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2657,8 +4135,19 @@
       <c r="H43" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H43),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K43" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2683,8 +4172,19 @@
       <c r="H44" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H44),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2709,8 +4209,19 @@
       <c r="H45" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H45),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2735,8 +4246,19 @@
       <c r="H46" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H46),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2761,8 +4283,19 @@
       <c r="H47" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H47),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2787,8 +4320,19 @@
       <c r="H48" s="4" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H48),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2813,8 +4357,19 @@
       <c r="H49" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H49),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2839,8 +4394,19 @@
       <c r="H50" s="4" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H50),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K50" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2865,8 +4431,19 @@
       <c r="H51" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H51),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K51" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2891,8 +4468,19 @@
       <c r="H52" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H52),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K52" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2917,8 +4505,19 @@
       <c r="H53" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H53),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K53" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2943,8 +4542,19 @@
       <c r="H54" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H54),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K54" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2969,8 +4579,19 @@
       <c r="H55" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H55),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K55" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2995,8 +4616,19 @@
       <c r="H56" s="4" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H56),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3021,11 +4653,19 @@
       <c r="H57" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="I57" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I57" s="7">
+        <v>0</v>
+      </c>
+      <c r="J57" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H57),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K57" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3050,11 +4690,19 @@
       <c r="H58" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H58),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K58" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3079,8 +4727,19 @@
       <c r="H59" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="7">
+        <v>0</v>
+      </c>
+      <c r="J59" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H59),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K59" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3105,8 +4764,19 @@
       <c r="H60" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H60),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3131,8 +4801,19 @@
       <c r="H61" s="4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H61),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K61" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3157,8 +4838,19 @@
       <c r="H62" s="4" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H62),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN03</v>
+      </c>
+      <c r="K62" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3183,8 +4875,19 @@
       <c r="H63" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I63" s="7">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H63),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K63" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3209,8 +4912,19 @@
       <c r="H64" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H64),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN02</v>
+      </c>
+      <c r="K64" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3235,8 +4949,19 @@
       <c r="H65" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I65" s="7">
+        <v>0</v>
+      </c>
+      <c r="J65" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H65),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K65" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3261,8 +4986,19 @@
       <c r="H66" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H66),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K66" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3287,8 +5023,19 @@
       <c r="H67" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H67),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN04</v>
+      </c>
+      <c r="K67" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3313,15 +5060,34 @@
       <c r="H68" s="4" t="s">
         <v>269</v>
       </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7" t="str">
+        <f>_xlfn.XLOOKUP(VALUE(H68),'[1]CuaHang (4cum)'!$A:$A,'[1]CuaHang (4cum)'!$D:$D)</f>
+        <v>TNN01</v>
+      </c>
+      <c r="K68" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>1517</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G68" xr:uid="{F43172B0-CE8C-4D15-B0C7-A7904BDB6BB2}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001CBE5E051E4741469E706C1B2DCAE0A5" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5335f99d438889e6b65bcc2ccea910d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9" xmlns:ns3="7d041e2d-136b-4ded-b1c0-b6942c8347c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96e2cec6f173189dd3f0bce4eacba64a" ns2:_="" ns3:_="">
     <xsd:import namespace="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9"/>
@@ -3556,15 +5322,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3577,13 +5334,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66609BA8-F7E6-4A08-9770-C05174A4FCBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4D7686-796F-4CD8-9208-2DD2BEF80DB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4D7686-796F-4CD8-9208-2DD2BEF80DB7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66609BA8-F7E6-4A08-9770-C05174A4FCBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9"/>
+    <ds:schemaRef ds:uri="7d041e2d-136b-4ded-b1c0-b6942c8347c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82CEA02-A865-486C-A3ED-DD0D6DC6DDD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82CEA02-A865-486C-A3ED-DD0D6DC6DDD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7d041e2d-136b-4ded-b1c0-b6942c8347c3"/>
+    <ds:schemaRef ds:uri="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dims/dsql.xlsx
+++ b/dims/dsql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnjcomvn.sharepoint.com/sites/HuynhTN/Shared Documents/Project/streamlit/dims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{4AF6687F-C6E6-4750-AB7F-9D0717F5FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F84600-AE6F-44EB-8BBA-76BC5031052A}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{4AF6687F-C6E6-4750-AB7F-9D0717F5FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05519388-B564-4235-8082-EAA4E210AC11}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="344">
   <si>
     <t>STT</t>
   </si>
@@ -1081,6 +1081,18 @@
   </si>
   <si>
     <t>Aut</t>
+  </si>
+  <si>
+    <t>TRƯƠNG THỊ THANH LOAN</t>
+  </si>
+  <si>
+    <t>Quản Lý Nhóm - KTTH</t>
+  </si>
+  <si>
+    <t>VPCN</t>
+  </si>
+  <si>
+    <t>loan.ttt01@pnj.com.vn</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1105,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1107,6 +1119,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1125,7 +1144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1161,16 +1180,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1214,15 +1254,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -2539,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2583,13 +2630,13 @@
       <c r="H1" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="1" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2811,7 +2858,7 @@
         <v>VPCN</v>
       </c>
       <c r="K7" s="7" t="str">
-        <f t="shared" ref="K3:K66" si="1">_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE($H$2:$H$68))</f>
+        <f t="shared" ref="K7" si="1">_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE($H$2:$H$68))</f>
         <v>9999-4000-6001-7000-5000-8002-2001-1295-1255-1317-1278-1307-1329-1565-1405-1409-1648-1467-1470-1477-1493-1280-1318-1489-1316-1401-1294-1314-1376-1373-1330-1555-1558-1370-1256-1277-1532-1534-1404-1539-1541-1548-1575-1579-1596-1617-1627-1628-1632-1634-1644-1647-1652-1115-1445-1447-1473-1504-1516-1517</v>
       </c>
     </row>
@@ -5072,19 +5119,45 @@
         <v>1517</v>
       </c>
     </row>
+    <row r="69" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C69" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="I69" s="7">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>342</v>
+      </c>
+      <c r="K69" s="7" t="str">
+        <f>_xlfn.TEXTJOIN("-",TRUE,_xlfn.UNIQUE($H$2:$H$68))</f>
+        <v>9999-4000-6001-7000-5000-8002-2001-1295-1255-1317-1278-1307-1329-1565-1405-1409-1648-1467-1470-1477-1493-1280-1318-1489-1316-1401-1294-1314-1376-1373-1330-1555-1558-1370-1256-1277-1532-1534-1404-1539-1541-1548-1575-1579-1596-1617-1627-1628-1632-1634-1644-1647-1652-1115-1445-1447-1473-1504-1516-1517</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G69" r:id="rId1" xr:uid="{C6C37A0B-4F53-4BB5-B929-20A69EBE7B46}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7d041e2d-136b-4ded-b1c0-b6942c8347c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5323,20 +5396,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7d041e2d-136b-4ded-b1c0-b6942c8347c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4D7686-796F-4CD8-9208-2DD2BEF80DB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82CEA02-A865-486C-A3ED-DD0D6DC6DDD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7d041e2d-136b-4ded-b1c0-b6942c8347c3"/>
+    <ds:schemaRef ds:uri="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5361,12 +5435,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82CEA02-A865-486C-A3ED-DD0D6DC6DDD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4D7686-796F-4CD8-9208-2DD2BEF80DB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7d041e2d-136b-4ded-b1c0-b6942c8347c3"/>
-    <ds:schemaRef ds:uri="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/dims/dsql.xlsx
+++ b/dims/dsql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnjcomvn.sharepoint.com/sites/HuynhTN/Shared Documents/Project/streamlit/dims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{4AF6687F-C6E6-4750-AB7F-9D0717F5FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05519388-B564-4235-8082-EAA4E210AC11}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{4AF6687F-C6E6-4750-AB7F-9D0717F5FA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCD23630-DFD4-4027-B6BE-D4426DBE4D2B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2589,7 +2589,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5120,6 +5120,9 @@
       </c>
     </row>
     <row r="69" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
       <c r="C69" s="15" t="s">
         <v>340</v>
       </c>
@@ -5150,14 +5153,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7d041e2d-136b-4ded-b1c0-b6942c8347c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5396,21 +5397,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7d041e2d-136b-4ded-b1c0-b6942c8347c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82CEA02-A865-486C-A3ED-DD0D6DC6DDD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4D7686-796F-4CD8-9208-2DD2BEF80DB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7d041e2d-136b-4ded-b1c0-b6942c8347c3"/>
-    <ds:schemaRef ds:uri="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5435,9 +5435,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4D7686-796F-4CD8-9208-2DD2BEF80DB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82CEA02-A865-486C-A3ED-DD0D6DC6DDD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7d041e2d-136b-4ded-b1c0-b6942c8347c3"/>
+    <ds:schemaRef ds:uri="5a5d19a6-f316-4e51-9f8a-0e4a9bac30a9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>